--- a/data/SAFI_messy.xlsx
+++ b/data/SAFI_messy.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebecker/Box Sync/Carpentry_repos/datacarpentry-lessons/socialsci/spreadsheets-socialsci/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61450\Documents\data-carpentry-r\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE233FF-3A8E-4C98-BF82-2299659CF8B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="460" windowWidth="25960" windowHeight="15780"/>
+    <workbookView xWindow="3405" yWindow="465" windowWidth="25965" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mozambique" sheetId="2" r:id="rId1"/>
     <sheet name="Tanzania" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -189,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1112,28 +1118,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
@@ -1142,7 +1148,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>1</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>3</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>4</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>5</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>6</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>7</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>8</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>9</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>10</v>
       </c>
@@ -1333,14 +1339,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H21" s="6"/>
       <c r="I21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="9" t="s">
         <v>22</v>
@@ -1358,7 +1364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>1</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>2</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>3</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>4</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>5</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>6</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>7</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>8</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>9</v>
       </c>
@@ -1593,23 +1599,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="12" t="s">
         <v>11</v>
@@ -1627,7 +1633,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>1</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>2</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>4</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>5</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>6</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>7</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>8</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>9</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>10</v>
       </c>
@@ -1817,12 +1823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>1</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>2</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>3</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>4</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>5</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>6</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>7</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>8</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>9</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>46</v>
       </c>
